--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3768.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3768.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.377012123670798</v>
+        <v>1.24846339225769</v>
       </c>
       <c r="B1">
-        <v>2.723708606289107</v>
+        <v>1.136787891387939</v>
       </c>
       <c r="C1">
-        <v>3.512183860507778</v>
+        <v>5.170534610748291</v>
       </c>
       <c r="D1">
-        <v>4.112487285411778</v>
+        <v>1.550818562507629</v>
       </c>
       <c r="E1">
-        <v>1.27635792408261</v>
+        <v>1.017218828201294</v>
       </c>
     </row>
   </sheetData>
